--- a/data/trans_camb/P12C1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12C1_R-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>50,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,03</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,97</t>
+          <t>31,34</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 8,92</t>
+          <t>26,1; 79,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,33; -0,18</t>
+          <t>-14,19; 32,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 2,19</t>
+          <t>12,44; 49,72</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,68%</t>
+          <t>591,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-26,03%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,35%</t>
+          <t>101,37%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,64; 104,62</t>
+          <t>137,78; 3145,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,55; -0,87</t>
+          <t>-23,07; 75,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,94; 4,79</t>
+          <t>33,86; 239,51</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>37,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>14,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>26,99</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 1,28</t>
+          <t>27,06; 48,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 9,37</t>
+          <t>3,34; 24,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 2,74</t>
+          <t>18,35; 34,62</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-32,25%</t>
+          <t>465,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,68%</t>
+          <t>81,64%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,11; 16,73</t>
+          <t>220,93; 928,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 19,78</t>
+          <t>5,13; 45,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 9,17</t>
+          <t>49,69; 118,06</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>46,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>34,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>39,96</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 10,8</t>
+          <t>33,68; 57,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 5,48</t>
+          <t>24,58; 44,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 5,45</t>
+          <t>31,99; 47,88</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>255,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>80,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>126,0%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 110,79</t>
+          <t>130,81; 463,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 13,35</t>
+          <t>49,81; 125,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 19,9</t>
+          <t>86,94; 178,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 2,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 2,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 19,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 5,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 2,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>42,84</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>21,96</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>32,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>34,69; 51,46</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12,95; 28,93</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>26,3; 38,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>365,68%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>42,29%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>100,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>234,41; 585,29</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>23,89; 60,09</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>75,12; 130,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P12C1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12C1_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>50,14</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,44</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>31,34</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>51.40992319234607</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.18296130788307</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>31.82741827123603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>26,1; 79,93</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,19; 32,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>12,44; 49,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>27.12220465604761</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.75343975707688</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>14.35234519324634</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>591,8%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>25,92%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>101,37%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>80.34562666180561</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>36.09966565514488</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>50.15067408627707</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>137,78; 3145,98</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-23,07; 75,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>33,86; 239,51</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>5.683903882373656</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.3077732062653836</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.030153970633102</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>37,86</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14,89</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>26,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>1.315771163174781</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2013393939421002</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.3586639207465259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>27,06; 48,22</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,34; 24,38</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>18,35; 34,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>27.4177718812331</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.8630003331113822</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.343061910959999</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>465,99%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>24,94%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>81,64%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>36.73309759782833</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>15.43476836701128</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>26.44905852232843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>220,93; 928,83</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,13; 45,46</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>49,69; 118,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>25.40736381409661</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.746569515432538</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>17.61733519713175</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>46,73</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>34,51</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>39,96</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>47.01535894899381</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>24.85634590216575</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>34.13901374999597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>33,68; 57,91</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>24,58; 44,48</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>31,99; 47,88</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>4.28419486294533</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.2598051996511358</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.7943495185382833</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>255,85%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>80,22%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>126,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>1.966448500349053</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.0597280790971231</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.4742578758122723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>130,81; 463,41</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>49,81; 125,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>86,94; 178,89</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>8.566322632392364</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.470876556663758</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.138695788115183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>46.91037793638381</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>35.35865715882853</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>40.54493826610999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>33.3571413572796</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>25.7924078359375</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>32.63986352412913</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>58.11010623377638</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>45.63636388933173</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>48.55349986490768</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>2.449991263117513</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.8314411447431057</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>1.273862703190089</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>42,84</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>21,96</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>32,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>1.19633137541375</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.5302327506022153</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.8789577654334199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>34,69; 51,46</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>12,95; 28,93</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>26,3; 38,28</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>4.517755752937021</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.305813236475306</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.810560273390385</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>365,68%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>42,29%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>100,08%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>42.44143249374201</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>22.58716479798488</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>32.25048375291158</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>234,41; 585,29</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>23,89; 60,09</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>75,12; 130,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>34.24084258762304</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>14.02088168703858</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>26.3270272338469</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>51.27431899512427</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>29.66535926434201</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>38.36114729203004</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>3.449153039149653</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.4401318284152667</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9952645244174105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>2.182176421779461</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.2564303930476922</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.7478248734736815</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>5.520526918772529</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.6262633469842225</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.294135522088719</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
